--- a/template/report_template.xlsx
+++ b/template/report_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\83549\Documents\github_proj\hospital_report_system\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B6566F-8341-4D08-B286-E8D9F34B6C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6F3E09-8C76-467F-857C-5BD2BC32C00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
   <si>
     <t>浙江省人民医院神经电生理科前庭功能检查报告</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>偏斜角度（度）</t>
-  </si>
-  <si>
-    <t>前庭功能检查结论</t>
   </si>
 </sst>
 </file>
@@ -700,151 +697,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q76" sqref="Q76:R76"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30:T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1127,28 +1124,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2"/>
@@ -1203,150 +1200,150 @@
       <c r="T3" s="30"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66" t="s">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="22"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="17"/>
-      <c r="O6" s="54" t="s">
+      <c r="O6" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="47"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="59"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="O8" s="48"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="50"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="63"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="63"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66" t="s">
+      <c r="E10" s="64"/>
+      <c r="F10" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="I10" s="66" t="s">
+      <c r="G10" s="64"/>
+      <c r="I10" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="50"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="63"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="69"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="69"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="50"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="48"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="63"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="5"/>
@@ -1360,122 +1357,120 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="50"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="63"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="63"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="70" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="70" t="s">
+      <c r="D14" s="64"/>
+      <c r="E14" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="70" t="s">
+      <c r="F14" s="64"/>
+      <c r="G14" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="66"/>
-      <c r="I14" s="70" t="s">
+      <c r="H14" s="64"/>
+      <c r="I14" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="66"/>
+      <c r="J14" s="64"/>
       <c r="K14" s="22"/>
-      <c r="L14" s="71" t="s">
+      <c r="L14" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="71"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="63"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="74"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="77"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="53"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="73"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="63"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="74"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="80"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="76"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="82"/>
+      <c r="S16" s="82"/>
+      <c r="T16" s="63"/>
     </row>
     <row r="17" spans="1:28">
-      <c r="O17" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="63"/>
       <c r="AA17" s="22"/>
       <c r="AB17" s="22"/>
     </row>
@@ -1489,20 +1484,20 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="47"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="63"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="32"/>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="66"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1522,27 +1517,27 @@
         <v>29</v>
       </c>
       <c r="I19" s="27"/>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
       <c r="N19" s="28"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="50"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="63"/>
       <c r="AA19" s="33"/>
       <c r="AB19" s="34"/>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="66"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="6"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1550,77 +1545,77 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="77"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="50"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="63"/>
       <c r="AA20" s="33"/>
       <c r="AB20" s="34"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="66"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="6"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="83"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="50"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="63"/>
       <c r="AA21" s="33"/>
       <c r="AB21" s="34"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="66"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="80"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="76"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="50"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="63"/>
       <c r="AA22" s="33"/>
       <c r="AB22" s="34"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="O23" s="48"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="50"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="63"/>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="10" t="s">
@@ -1635,81 +1630,81 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="50"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="63"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66" t="s">
+      <c r="B25" s="64"/>
+      <c r="C25" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66" t="s">
+      <c r="D25" s="64"/>
+      <c r="E25" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="66"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="50"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="63"/>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="13"/>
       <c r="F26" s="8"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="53"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="73"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="56"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="13"/>
       <c r="F27" s="8"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="80"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="76"/>
       <c r="O27" s="44"/>
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
@@ -1743,41 +1738,41 @@
       <c r="K29" s="11"/>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
-      <c r="O29" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
+      <c r="O29" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
     </row>
     <row r="30" spans="1:28">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="H30" s="66" t="s">
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="H30" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
       <c r="N30" s="29"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="57"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="86"/>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="6"/>
@@ -1786,431 +1781,431 @@
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="69"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="48"/>
       <c r="N31" s="29"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="60"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="89"/>
     </row>
     <row r="32" spans="1:28">
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="60"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="89"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="65" t="s">
+      <c r="H33" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="60"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="89"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="69"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="48"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="66" t="s">
+      <c r="H34" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="66"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="69"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="60"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="48"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="89"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="O35" s="58"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="60"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="89"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="60"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="88"/>
+      <c r="T36" s="89"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85" t="s">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85" t="s">
+      <c r="E37" s="66"/>
+      <c r="F37" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="85"/>
+      <c r="G37" s="66"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="66" t="s">
+      <c r="I37" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="60"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="89"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="69"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="47"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="60"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="48"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="59"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="89"/>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="69"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="53"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="60"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="48"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="56"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="89"/>
     </row>
     <row r="40" spans="1:20">
-      <c r="O40" s="58"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="60"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="89"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="60"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="89"/>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85" t="s">
+      <c r="C42" s="66"/>
+      <c r="D42" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85" t="s">
+      <c r="E42" s="66"/>
+      <c r="F42" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="85"/>
+      <c r="G42" s="66"/>
       <c r="H42" s="18" t="s">
         <v>52</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="66" t="s">
+      <c r="J42" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66" t="s">
+      <c r="K42" s="64"/>
+      <c r="L42" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="M42" s="66"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="60"/>
+      <c r="M42" s="64"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="89"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
       <c r="H43" s="15"/>
       <c r="I43" s="20"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="69"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="60"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="48"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="88"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="89"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="67"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
       <c r="H44" s="15"/>
       <c r="I44" s="20"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="69"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="60"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="48"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="88"/>
+      <c r="T44" s="89"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="O45" s="58"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="60"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="89"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="69"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="60"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="48"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="88"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="89"/>
     </row>
     <row r="47" spans="1:20">
-      <c r="O47" s="58"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="60"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="89"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="60"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="88"/>
+      <c r="R48" s="88"/>
+      <c r="S48" s="88"/>
+      <c r="T48" s="89"/>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="85" t="s">
+      <c r="B49" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85" t="s">
+      <c r="C49" s="66"/>
+      <c r="D49" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="85"/>
+      <c r="E49" s="66"/>
       <c r="F49" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="66" t="s">
+      <c r="H49" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="66"/>
-      <c r="K49" s="66" t="s">
+      <c r="I49" s="64"/>
+      <c r="K49" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L49" s="66"/>
-      <c r="M49" s="66"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="60"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="88"/>
+      <c r="R49" s="88"/>
+      <c r="S49" s="88"/>
+      <c r="T49" s="89"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="15"/>
       <c r="G50" s="20"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="69"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="47"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="60"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="48"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="59"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="88"/>
+      <c r="Q50" s="88"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="89"/>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
       <c r="F51" s="15"/>
       <c r="G51" s="20"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="69"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="53"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="63"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="48"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="56"/>
+      <c r="O51" s="90"/>
+      <c r="P51" s="91"/>
+      <c r="Q51" s="91"/>
+      <c r="R51" s="91"/>
+      <c r="S51" s="91"/>
+      <c r="T51" s="92"/>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="21"/>
@@ -2218,215 +2213,215 @@
       <c r="G52" s="11"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="85" t="s">
+      <c r="A56" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85" t="s">
+      <c r="B56" s="66"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85" t="s">
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="86" t="s">
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="K56" s="86"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="86"/>
-      <c r="O56" s="71" t="s">
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="O56" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="67"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="69"/>
-      <c r="O57" s="45"/>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="46"/>
-      <c r="R57" s="46"/>
-      <c r="S57" s="46"/>
-      <c r="T57" s="47"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="48"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="58"/>
+      <c r="Q57" s="58"/>
+      <c r="R57" s="58"/>
+      <c r="S57" s="58"/>
+      <c r="T57" s="59"/>
     </row>
     <row r="58" spans="1:20">
-      <c r="O58" s="48"/>
-      <c r="P58" s="88"/>
-      <c r="Q58" s="88"/>
-      <c r="R58" s="88"/>
-      <c r="S58" s="88"/>
-      <c r="T58" s="50"/>
+      <c r="O58" s="61"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="62"/>
+      <c r="S58" s="62"/>
+      <c r="T58" s="63"/>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="66" t="s">
+      <c r="A59" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="66"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="69"/>
-      <c r="O59" s="48"/>
-      <c r="P59" s="88"/>
-      <c r="Q59" s="88"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="88"/>
-      <c r="T59" s="50"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="48"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="62"/>
+      <c r="S59" s="62"/>
+      <c r="T59" s="63"/>
     </row>
     <row r="60" spans="1:20">
-      <c r="O60" s="48"/>
-      <c r="P60" s="88"/>
-      <c r="Q60" s="88"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="88"/>
-      <c r="T60" s="50"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="62"/>
+      <c r="S60" s="62"/>
+      <c r="T60" s="63"/>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="65"/>
-      <c r="O61" s="48"/>
-      <c r="P61" s="88"/>
-      <c r="Q61" s="88"/>
-      <c r="R61" s="88"/>
-      <c r="S61" s="88"/>
-      <c r="T61" s="50"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="62"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="62"/>
+      <c r="S61" s="62"/>
+      <c r="T61" s="63"/>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="87" t="s">
+      <c r="A62" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87" t="s">
+      <c r="B62" s="54"/>
+      <c r="C62" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="87"/>
-      <c r="F62" s="66" t="s">
+      <c r="D62" s="54"/>
+      <c r="F62" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="66"/>
-      <c r="M62" s="66"/>
-      <c r="O62" s="48"/>
-      <c r="P62" s="88"/>
-      <c r="Q62" s="88"/>
-      <c r="R62" s="88"/>
-      <c r="S62" s="88"/>
-      <c r="T62" s="50"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="O62" s="61"/>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="62"/>
+      <c r="S62" s="62"/>
+      <c r="T62" s="63"/>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="67"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="69"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="69"/>
-      <c r="O63" s="48"/>
-      <c r="P63" s="88"/>
-      <c r="Q63" s="88"/>
-      <c r="R63" s="88"/>
-      <c r="S63" s="88"/>
-      <c r="T63" s="50"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="48"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="48"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="62"/>
+      <c r="S63" s="62"/>
+      <c r="T63" s="63"/>
     </row>
     <row r="64" spans="1:20">
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
-      <c r="O64" s="48"/>
-      <c r="P64" s="88"/>
-      <c r="Q64" s="88"/>
-      <c r="R64" s="88"/>
-      <c r="S64" s="88"/>
-      <c r="T64" s="50"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
+      <c r="T64" s="63"/>
     </row>
     <row r="65" spans="1:20">
-      <c r="A65" s="65" t="s">
+      <c r="A65" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="65"/>
-      <c r="M65" s="65"/>
-      <c r="O65" s="48"/>
-      <c r="P65" s="88"/>
-      <c r="Q65" s="88"/>
-      <c r="R65" s="88"/>
-      <c r="S65" s="88"/>
-      <c r="T65" s="50"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="62"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="62"/>
+      <c r="S65" s="62"/>
+      <c r="T65" s="63"/>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="24" t="s">
@@ -2445,27 +2440,27 @@
         <v>21</v>
       </c>
       <c r="F66" s="36"/>
-      <c r="G66" s="89" t="s">
+      <c r="G66" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="H66" s="89"/>
+      <c r="H66" s="49"/>
       <c r="I66" s="35" t="s">
         <v>67</v>
       </c>
       <c r="J66" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L66" s="66" t="s">
+      <c r="L66" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="M66" s="66"/>
+      <c r="M66" s="64"/>
       <c r="N66" s="27"/>
-      <c r="O66" s="48"/>
-      <c r="P66" s="88"/>
-      <c r="Q66" s="88"/>
-      <c r="R66" s="88"/>
-      <c r="S66" s="88"/>
-      <c r="T66" s="50"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="62"/>
+      <c r="Q66" s="62"/>
+      <c r="R66" s="62"/>
+      <c r="S66" s="62"/>
+      <c r="T66" s="63"/>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="35" t="s">
@@ -2475,110 +2470,110 @@
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
       <c r="E67" s="30"/>
-      <c r="G67" s="90" t="s">
+      <c r="G67" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="H67" s="90"/>
-      <c r="I67" s="93"/>
-      <c r="J67" s="93"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="69"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="48"/>
       <c r="N67" s="39"/>
-      <c r="O67" s="48"/>
-      <c r="P67" s="88"/>
-      <c r="Q67" s="88"/>
-      <c r="R67" s="88"/>
-      <c r="S67" s="88"/>
-      <c r="T67" s="50"/>
+      <c r="O67" s="61"/>
+      <c r="P67" s="62"/>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="62"/>
+      <c r="S67" s="62"/>
+      <c r="T67" s="63"/>
     </row>
     <row r="68" spans="1:20">
-      <c r="O68" s="48"/>
-      <c r="P68" s="88"/>
-      <c r="Q68" s="88"/>
-      <c r="R68" s="88"/>
-      <c r="S68" s="88"/>
-      <c r="T68" s="50"/>
+      <c r="O68" s="61"/>
+      <c r="P68" s="62"/>
+      <c r="Q68" s="62"/>
+      <c r="R68" s="62"/>
+      <c r="S68" s="62"/>
+      <c r="T68" s="63"/>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O69" s="48"/>
-      <c r="P69" s="88"/>
-      <c r="Q69" s="88"/>
-      <c r="R69" s="88"/>
-      <c r="S69" s="88"/>
-      <c r="T69" s="50"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="62"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="62"/>
+      <c r="S69" s="62"/>
+      <c r="T69" s="63"/>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="71" t="s">
+      <c r="B70" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="71"/>
-      <c r="E70" s="71" t="s">
+      <c r="C70" s="50"/>
+      <c r="E70" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
-      <c r="J70" s="71"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="71"/>
-      <c r="M70" s="71"/>
-      <c r="O70" s="48"/>
-      <c r="P70" s="88"/>
-      <c r="Q70" s="88"/>
-      <c r="R70" s="88"/>
-      <c r="S70" s="88"/>
-      <c r="T70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="50"/>
+      <c r="O70" s="61"/>
+      <c r="P70" s="62"/>
+      <c r="Q70" s="62"/>
+      <c r="R70" s="62"/>
+      <c r="S70" s="62"/>
+      <c r="T70" s="63"/>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="67"/>
-      <c r="C71" s="69"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="47"/>
-      <c r="O71" s="48"/>
-      <c r="P71" s="88"/>
-      <c r="Q71" s="88"/>
-      <c r="R71" s="88"/>
-      <c r="S71" s="88"/>
-      <c r="T71" s="50"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="48"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="58"/>
+      <c r="L71" s="58"/>
+      <c r="M71" s="59"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="62"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="62"/>
+      <c r="S71" s="62"/>
+      <c r="T71" s="63"/>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="51"/>
-      <c r="C72" s="53"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="53"/>
-      <c r="O72" s="51"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="52"/>
-      <c r="R72" s="52"/>
-      <c r="S72" s="52"/>
-      <c r="T72" s="53"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="56"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="56"/>
+      <c r="O72" s="55"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="60"/>
+      <c r="R72" s="60"/>
+      <c r="S72" s="60"/>
+      <c r="T72" s="56"/>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="1" t="s">
@@ -2586,52 +2581,52 @@
       </c>
     </row>
     <row r="75" spans="1:20">
-      <c r="A75" s="87" t="s">
+      <c r="A75" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="87"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="69"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="48"/>
       <c r="G75" s="37" t="s">
         <v>76</v>
       </c>
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="69"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="48"/>
       <c r="M75" s="37" t="s">
         <v>77</v>
       </c>
       <c r="N75" s="37"/>
       <c r="O75" s="37"/>
       <c r="P75" s="37"/>
-      <c r="Q75" s="67"/>
-      <c r="R75" s="69"/>
+      <c r="Q75" s="46"/>
+      <c r="R75" s="48"/>
     </row>
     <row r="76" spans="1:20">
-      <c r="A76" s="87" t="s">
+      <c r="A76" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="69"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="48"/>
       <c r="G76" s="37" t="s">
         <v>79</v>
       </c>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="69"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="48"/>
       <c r="M76" s="37" t="s">
         <v>80</v>
       </c>
       <c r="N76" s="37"/>
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
-      <c r="Q76" s="67"/>
-      <c r="R76" s="69"/>
+      <c r="Q76" s="46"/>
+      <c r="R76" s="48"/>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="37" t="s">
@@ -2639,22 +2634,22 @@
       </c>
       <c r="B78" s="37"/>
       <c r="C78" s="37"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="69"/>
-      <c r="G78" s="71" t="s">
+      <c r="D78" s="46"/>
+      <c r="E78" s="48"/>
+      <c r="G78" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="68"/>
-      <c r="M78" s="68"/>
-      <c r="N78" s="68"/>
-      <c r="O78" s="68"/>
-      <c r="P78" s="68"/>
-      <c r="Q78" s="68"/>
-      <c r="R78" s="69"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="48"/>
       <c r="S78" s="43"/>
     </row>
     <row r="79" spans="1:20">
@@ -2666,325 +2661,325 @@
       <c r="T79" s="43"/>
     </row>
     <row r="80" spans="1:20">
-      <c r="A80" s="65" t="s">
+      <c r="A80" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="65"/>
-      <c r="M80" s="65"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="89" t="s">
+      <c r="B81" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="89"/>
-      <c r="D81" s="89" t="s">
+      <c r="C81" s="49"/>
+      <c r="D81" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E81" s="89"/>
-      <c r="F81" s="91" t="s">
+      <c r="E81" s="49"/>
+      <c r="F81" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G81" s="91"/>
-      <c r="H81" s="89" t="s">
+      <c r="G81" s="52"/>
+      <c r="H81" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="I81" s="89"/>
-      <c r="J81" s="89"/>
-      <c r="K81" s="89" t="s">
+      <c r="I81" s="49"/>
+      <c r="J81" s="49"/>
+      <c r="K81" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="L81" s="89"/>
-      <c r="M81" s="89"/>
-      <c r="N81" s="89" t="s">
+      <c r="L81" s="49"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="O81" s="89"/>
-      <c r="P81" s="89" t="s">
+      <c r="O81" s="49"/>
+      <c r="P81" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="Q81" s="89"/>
-      <c r="R81" s="89"/>
+      <c r="Q81" s="49"/>
+      <c r="R81" s="49"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B82" s="67"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="69"/>
-      <c r="K82" s="67"/>
-      <c r="L82" s="68"/>
-      <c r="M82" s="69"/>
-      <c r="N82" s="67"/>
-      <c r="O82" s="69"/>
-      <c r="P82" s="67"/>
-      <c r="Q82" s="68"/>
-      <c r="R82" s="69"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="48"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="48"/>
+      <c r="P82" s="46"/>
+      <c r="Q82" s="47"/>
+      <c r="R82" s="48"/>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="67"/>
-      <c r="C83" s="69"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="69"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="69"/>
-      <c r="N83" s="67"/>
-      <c r="O83" s="69"/>
-      <c r="P83" s="67"/>
-      <c r="Q83" s="68"/>
-      <c r="R83" s="69"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="48"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="48"/>
+      <c r="P83" s="46"/>
+      <c r="Q83" s="47"/>
+      <c r="R83" s="48"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="89" t="s">
+      <c r="A85" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="89"/>
-      <c r="C85" s="89"/>
-      <c r="E85" s="71" t="s">
+      <c r="B85" s="49"/>
+      <c r="C85" s="49"/>
+      <c r="E85" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
-      <c r="K85" s="71"/>
-      <c r="L85" s="71"/>
-      <c r="M85" s="71"/>
-      <c r="N85" s="71"/>
-      <c r="O85" s="71"/>
-      <c r="P85" s="71"/>
-      <c r="Q85" s="71"/>
-      <c r="R85" s="71"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="50"/>
+      <c r="N85" s="50"/>
+      <c r="O85" s="50"/>
+      <c r="P85" s="50"/>
+      <c r="Q85" s="50"/>
+      <c r="R85" s="50"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="67"/>
-      <c r="B86" s="68"/>
-      <c r="C86" s="69"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="68"/>
-      <c r="L86" s="68"/>
-      <c r="M86" s="68"/>
-      <c r="N86" s="68"/>
-      <c r="O86" s="68"/>
-      <c r="P86" s="68"/>
-      <c r="Q86" s="68"/>
-      <c r="R86" s="69"/>
+      <c r="A86" s="46"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="48"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="47"/>
+      <c r="N86" s="47"/>
+      <c r="O86" s="47"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="47"/>
+      <c r="R86" s="48"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="65" t="s">
+      <c r="A88" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="65"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="65"/>
-      <c r="M88" s="65"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="51"/>
+      <c r="M88" s="51"/>
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="89" t="s">
+      <c r="B89" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="89"/>
-      <c r="D89" s="89" t="s">
+      <c r="C89" s="49"/>
+      <c r="D89" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="E89" s="89"/>
-      <c r="F89" s="91" t="s">
+      <c r="E89" s="49"/>
+      <c r="F89" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="G89" s="91"/>
-      <c r="H89" s="89" t="s">
+      <c r="G89" s="52"/>
+      <c r="H89" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="I89" s="89"/>
-      <c r="J89" s="89"/>
-      <c r="K89" s="89" t="s">
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="L89" s="89"/>
-      <c r="M89" s="89"/>
-      <c r="N89" s="89" t="s">
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="O89" s="89"/>
-      <c r="P89" s="89" t="s">
+      <c r="O89" s="49"/>
+      <c r="P89" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="Q89" s="89"/>
-      <c r="R89" s="89"/>
+      <c r="Q89" s="49"/>
+      <c r="R89" s="49"/>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="67"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="69"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="68"/>
-      <c r="J90" s="69"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="68"/>
-      <c r="M90" s="69"/>
-      <c r="N90" s="67"/>
-      <c r="O90" s="69"/>
-      <c r="P90" s="67"/>
-      <c r="Q90" s="68"/>
-      <c r="R90" s="69"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="47"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="47"/>
+      <c r="M90" s="48"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="48"/>
+      <c r="P90" s="46"/>
+      <c r="Q90" s="47"/>
+      <c r="R90" s="48"/>
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="67"/>
-      <c r="C91" s="69"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="69"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="68"/>
-      <c r="J91" s="69"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="68"/>
-      <c r="M91" s="69"/>
-      <c r="N91" s="67"/>
-      <c r="O91" s="69"/>
-      <c r="P91" s="67"/>
-      <c r="Q91" s="68"/>
-      <c r="R91" s="69"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="48"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="48"/>
+      <c r="P91" s="46"/>
+      <c r="Q91" s="47"/>
+      <c r="R91" s="48"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="89" t="s">
+      <c r="A93" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="89"/>
-      <c r="C93" s="89"/>
-      <c r="E93" s="71" t="s">
+      <c r="B93" s="49"/>
+      <c r="C93" s="49"/>
+      <c r="E93" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="71"/>
-      <c r="J93" s="71"/>
-      <c r="K93" s="71"/>
-      <c r="L93" s="71"/>
-      <c r="M93" s="71"/>
-      <c r="N93" s="71"/>
-      <c r="O93" s="71"/>
-      <c r="P93" s="71"/>
-      <c r="Q93" s="71"/>
-      <c r="R93" s="71"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="50"/>
+      <c r="M93" s="50"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="50"/>
+      <c r="P93" s="50"/>
+      <c r="Q93" s="50"/>
+      <c r="R93" s="50"/>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="67"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="69"/>
-      <c r="E94" s="67"/>
-      <c r="F94" s="68"/>
-      <c r="G94" s="68"/>
-      <c r="H94" s="68"/>
-      <c r="I94" s="68"/>
-      <c r="J94" s="68"/>
-      <c r="K94" s="68"/>
-      <c r="L94" s="68"/>
-      <c r="M94" s="68"/>
-      <c r="N94" s="68"/>
-      <c r="O94" s="68"/>
-      <c r="P94" s="68"/>
-      <c r="Q94" s="68"/>
-      <c r="R94" s="69"/>
+      <c r="A94" s="46"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="48"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="47"/>
+      <c r="N94" s="47"/>
+      <c r="O94" s="47"/>
+      <c r="P94" s="47"/>
+      <c r="Q94" s="47"/>
+      <c r="R94" s="48"/>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="65" t="s">
+      <c r="A96" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="65"/>
-      <c r="J96" s="65"/>
-      <c r="K96" s="65"/>
-      <c r="L96" s="65"/>
-      <c r="M96" s="65"/>
-      <c r="N96" s="65"/>
-      <c r="O96" s="65"/>
-      <c r="P96" s="65"/>
-      <c r="Q96" s="65"/>
-      <c r="R96" s="65"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="51"/>
+      <c r="O96" s="51"/>
+      <c r="P96" s="51"/>
+      <c r="Q96" s="51"/>
+      <c r="R96" s="51"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="92" t="s">
+      <c r="A97" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="92"/>
-      <c r="C97" s="87" t="s">
+      <c r="B97" s="53"/>
+      <c r="C97" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D97" s="87"/>
+      <c r="D97" s="54"/>
       <c r="E97" s="38"/>
-      <c r="F97" s="71" t="s">
+      <c r="F97" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G97" s="71"/>
-      <c r="H97" s="71"/>
-      <c r="I97" s="71"/>
-      <c r="J97" s="71"/>
-      <c r="K97" s="71"/>
-      <c r="L97" s="71"/>
-      <c r="M97" s="71"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="50"/>
+      <c r="M97" s="50"/>
       <c r="N97" s="27"/>
       <c r="O97" s="27"/>
       <c r="P97" s="27"/>
@@ -2993,18 +2988,18 @@
       <c r="S97" s="27"/>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="67"/>
-      <c r="B98" s="69"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="69"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="68"/>
-      <c r="H98" s="68"/>
-      <c r="I98" s="68"/>
-      <c r="J98" s="68"/>
-      <c r="K98" s="68"/>
-      <c r="L98" s="68"/>
-      <c r="M98" s="69"/>
+      <c r="A98" s="46"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="48"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="47"/>
+      <c r="L98" s="47"/>
+      <c r="M98" s="48"/>
       <c r="N98" s="42"/>
       <c r="O98" s="42"/>
       <c r="P98" s="42"/>
@@ -3013,20 +3008,165 @@
       <c r="S98" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="208">
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="P91:R91"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="E85:R85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="E86:R86"/>
-    <mergeCell ref="A88:M88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="N89:O89"/>
+  <mergeCells count="206">
+    <mergeCell ref="O7:T26"/>
+    <mergeCell ref="O30:T51"/>
+    <mergeCell ref="O29:T29"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="H26:M27"/>
+    <mergeCell ref="J20:M22"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I38:M39"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A55:M55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="K50:M51"/>
+    <mergeCell ref="O56:T56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="A61:M61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:M62"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="E71:M72"/>
+    <mergeCell ref="O57:T72"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:M63"/>
+    <mergeCell ref="A65:M65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:M70"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="A80:M80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="J78:R78"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="F98:M98"/>
@@ -3051,6 +3191,19 @@
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="F97:M97"/>
     <mergeCell ref="P90:R90"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="E85:R85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="E86:R86"/>
+    <mergeCell ref="A88:M88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="N89:O89"/>
     <mergeCell ref="P89:R89"/>
     <mergeCell ref="P81:R81"/>
     <mergeCell ref="B82:C82"/>
@@ -3062,166 +3215,6 @@
     <mergeCell ref="P82:R82"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="A80:M80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="J78:R78"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="E71:M72"/>
-    <mergeCell ref="O57:T72"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:M63"/>
-    <mergeCell ref="A65:M65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:M70"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="O56:T56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="A61:M61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:M62"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A55:M55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="K50:M51"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I38:M39"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="H26:M27"/>
-    <mergeCell ref="J20:M22"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="O7:T15"/>
-    <mergeCell ref="O17:T17"/>
-    <mergeCell ref="O18:T26"/>
-    <mergeCell ref="O30:T51"/>
-    <mergeCell ref="O29:T29"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.26250000000000001" right="0.26250000000000001" top="0.26250000000000001" bottom="0.26250000000000001" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape"/>

--- a/template/report_template.xlsx
+++ b/template/report_template.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\83549\Documents\github_proj\hospital_report_system\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6F3E09-8C76-467F-857C-5BD2BC32C00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF705C41-62D2-4A26-BD1A-43AD49888F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30435" yWindow="3270" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前庭报告-1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="检查所见与检查结论" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
   <si>
     <t>浙江省人民医院神经电生理科前庭功能检查报告</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>偏斜角度（度）</t>
+  </si>
+  <si>
+    <t>检查所见</t>
+  </si>
+  <si>
+    <t>检查结论</t>
   </si>
 </sst>
 </file>
@@ -394,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +416,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +573,7 @@
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,148 +712,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,7 +1133,7 @@
   <dimension ref="A1:AB98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30:T51"/>
+      <selection activeCell="O6" sqref="O6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1124,28 +1142,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2"/>
@@ -1200,150 +1218,150 @@
       <c r="T3" s="30"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="22"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="17"/>
-      <c r="O6" s="83" t="s">
+      <c r="O6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="59"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="70"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="48"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="O8" s="61"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="63"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="51"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="63"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="51"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="I10" s="64" t="s">
+      <c r="G10" s="67"/>
+      <c r="I10" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="63"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="48"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="63"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="70"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="51"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="5"/>
@@ -1357,120 +1375,120 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="63"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="51"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="63"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="51"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="81" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="64"/>
-      <c r="E14" s="81" t="s">
+      <c r="D14" s="67"/>
+      <c r="E14" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="81" t="s">
+      <c r="F14" s="67"/>
+      <c r="G14" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="64"/>
-      <c r="I14" s="81" t="s">
+      <c r="H14" s="67"/>
+      <c r="I14" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="64"/>
+      <c r="J14" s="67"/>
       <c r="K14" s="22"/>
-      <c r="L14" s="50" t="s">
+      <c r="L14" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="63"/>
+      <c r="M14" s="72"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="51"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="75"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="73"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="63"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="77"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="51"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="75"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="76"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="63"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="51"/>
     </row>
     <row r="17" spans="1:28">
-      <c r="O17" s="61"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="63"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="51"/>
       <c r="AA17" s="22"/>
       <c r="AB17" s="22"/>
     </row>
@@ -1484,20 +1502,20 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="63"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="51"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="32"/>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="64"/>
+      <c r="B19" s="67"/>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1517,27 +1535,27 @@
         <v>29</v>
       </c>
       <c r="I19" s="27"/>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="28"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="63"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="51"/>
       <c r="AA19" s="33"/>
       <c r="AB19" s="34"/>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="64"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="6"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1545,77 +1563,77 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="73"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="77"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="63"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="51"/>
       <c r="AA20" s="33"/>
       <c r="AB20" s="34"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="64"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="6"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="84"/>
       <c r="N21" s="16"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="63"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="51"/>
       <c r="AA21" s="33"/>
       <c r="AB21" s="34"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="64"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="76"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="79"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="63"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="51"/>
       <c r="AA22" s="33"/>
       <c r="AB22" s="34"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="O23" s="61"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="63"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="51"/>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="10" t="s">
@@ -1630,81 +1648,81 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="63"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="51"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64" t="s">
+      <c r="D25" s="67"/>
+      <c r="E25" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="64"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="64" t="s">
+      <c r="H25" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="63"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="51"/>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="13"/>
       <c r="F26" s="8"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="73"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="56"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="77"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="54"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="13"/>
       <c r="F27" s="8"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="76"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="79"/>
       <c r="O27" s="44"/>
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
@@ -1738,41 +1756,41 @@
       <c r="K29" s="11"/>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
-      <c r="O29" s="83" t="s">
+      <c r="O29" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
     </row>
     <row r="30" spans="1:28">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="H30" s="64" t="s">
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="H30" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
       <c r="N30" s="29"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="86"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="57"/>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="6"/>
@@ -1781,431 +1799,431 @@
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="48"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="70"/>
       <c r="N31" s="29"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="89"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="60"/>
     </row>
     <row r="32" spans="1:28">
-      <c r="O32" s="87"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="88"/>
-      <c r="T32" s="89"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="60"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="51" t="s">
+      <c r="H33" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="89"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="60"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="48"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="70"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="64"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="48"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="88"/>
-      <c r="T34" s="89"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="70"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="60"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="O35" s="87"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="89"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="60"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="88"/>
-      <c r="T36" s="89"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="60"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66" t="s">
+      <c r="C37" s="86"/>
+      <c r="D37" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66" t="s">
+      <c r="E37" s="86"/>
+      <c r="F37" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="66"/>
+      <c r="G37" s="86"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="64" t="s">
+      <c r="I37" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="89"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="60"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="48"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="59"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="88"/>
-      <c r="S38" s="88"/>
-      <c r="T38" s="89"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="70"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="48"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="60"/>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="48"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="56"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="89"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="70"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="54"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="60"/>
     </row>
     <row r="40" spans="1:20">
-      <c r="O40" s="87"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="89"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="60"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="89"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="60"/>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66" t="s">
+      <c r="C42" s="86"/>
+      <c r="D42" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66" t="s">
+      <c r="E42" s="86"/>
+      <c r="F42" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="66"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="18" t="s">
         <v>52</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="64" t="s">
+      <c r="J42" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64" t="s">
+      <c r="K42" s="67"/>
+      <c r="L42" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="M42" s="64"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="89"/>
+      <c r="M42" s="67"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="60"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
       <c r="H43" s="15"/>
       <c r="I43" s="20"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="48"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="89"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="70"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="60"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
       <c r="H44" s="15"/>
       <c r="I44" s="20"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="48"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="89"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="70"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="60"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="O45" s="87"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="89"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="60"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="48"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="89"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="70"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="59"/>
+      <c r="Q46" s="59"/>
+      <c r="R46" s="59"/>
+      <c r="S46" s="59"/>
+      <c r="T46" s="60"/>
     </row>
     <row r="47" spans="1:20">
-      <c r="O47" s="87"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="89"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="59"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="59"/>
+      <c r="S47" s="59"/>
+      <c r="T47" s="60"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="88"/>
-      <c r="S48" s="88"/>
-      <c r="T48" s="89"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="59"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="60"/>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66" t="s">
+      <c r="C49" s="86"/>
+      <c r="D49" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="66"/>
+      <c r="E49" s="86"/>
       <c r="F49" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G49" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="64" t="s">
+      <c r="H49" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="64"/>
-      <c r="K49" s="64" t="s">
+      <c r="I49" s="67"/>
+      <c r="K49" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="O49" s="87"/>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="88"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="89"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="59"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="60"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
       <c r="F50" s="15"/>
       <c r="G50" s="20"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="48"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="59"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="88"/>
-      <c r="Q50" s="88"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="88"/>
-      <c r="T50" s="89"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="70"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="48"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="60"/>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
       <c r="F51" s="15"/>
       <c r="G51" s="20"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="48"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="56"/>
-      <c r="O51" s="90"/>
-      <c r="P51" s="91"/>
-      <c r="Q51" s="91"/>
-      <c r="R51" s="91"/>
-      <c r="S51" s="91"/>
-      <c r="T51" s="92"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="70"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="54"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="62"/>
+      <c r="S51" s="62"/>
+      <c r="T51" s="63"/>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="21"/>
@@ -2213,215 +2231,215 @@
       <c r="G52" s="11"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
+      <c r="M55" s="66"/>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66" t="s">
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66" t="s">
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="67" t="s">
+      <c r="H56" s="86"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
-      <c r="O56" s="50" t="s">
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="O56" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="50"/>
-      <c r="S56" s="50"/>
-      <c r="T56" s="50"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="72"/>
+      <c r="S56" s="72"/>
+      <c r="T56" s="72"/>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="46"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="48"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="58"/>
-      <c r="Q57" s="58"/>
-      <c r="R57" s="58"/>
-      <c r="S57" s="58"/>
-      <c r="T57" s="59"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="70"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="47"/>
+      <c r="T57" s="48"/>
     </row>
     <row r="58" spans="1:20">
-      <c r="O58" s="61"/>
-      <c r="P58" s="62"/>
-      <c r="Q58" s="62"/>
-      <c r="R58" s="62"/>
-      <c r="S58" s="62"/>
-      <c r="T58" s="63"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="89"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="89"/>
+      <c r="S58" s="89"/>
+      <c r="T58" s="51"/>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="48"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="62"/>
-      <c r="Q59" s="62"/>
-      <c r="R59" s="62"/>
-      <c r="S59" s="62"/>
-      <c r="T59" s="63"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="70"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="89"/>
+      <c r="Q59" s="89"/>
+      <c r="R59" s="89"/>
+      <c r="S59" s="89"/>
+      <c r="T59" s="51"/>
     </row>
     <row r="60" spans="1:20">
-      <c r="O60" s="61"/>
-      <c r="P60" s="62"/>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="62"/>
-      <c r="S60" s="62"/>
-      <c r="T60" s="63"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="89"/>
+      <c r="Q60" s="89"/>
+      <c r="R60" s="89"/>
+      <c r="S60" s="89"/>
+      <c r="T60" s="51"/>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="51" t="s">
+      <c r="A61" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="51"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="62"/>
-      <c r="Q61" s="62"/>
-      <c r="R61" s="62"/>
-      <c r="S61" s="62"/>
-      <c r="T61" s="63"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="89"/>
+      <c r="Q61" s="89"/>
+      <c r="R61" s="89"/>
+      <c r="S61" s="89"/>
+      <c r="T61" s="51"/>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54" t="s">
+      <c r="B62" s="88"/>
+      <c r="C62" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="54"/>
-      <c r="F62" s="64" t="s">
+      <c r="D62" s="88"/>
+      <c r="F62" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
-      <c r="I62" s="64"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="64"/>
-      <c r="M62" s="64"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="62"/>
-      <c r="Q62" s="62"/>
-      <c r="R62" s="62"/>
-      <c r="S62" s="62"/>
-      <c r="T62" s="63"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="67"/>
+      <c r="L62" s="67"/>
+      <c r="M62" s="67"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="89"/>
+      <c r="Q62" s="89"/>
+      <c r="R62" s="89"/>
+      <c r="S62" s="89"/>
+      <c r="T62" s="51"/>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="46"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="48"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="48"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="62"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="62"/>
-      <c r="S63" s="62"/>
-      <c r="T63" s="63"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="70"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="70"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="89"/>
+      <c r="Q63" s="89"/>
+      <c r="R63" s="89"/>
+      <c r="S63" s="89"/>
+      <c r="T63" s="51"/>
     </row>
     <row r="64" spans="1:20">
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
-      <c r="O64" s="61"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
-      <c r="T64" s="63"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="89"/>
+      <c r="Q64" s="89"/>
+      <c r="R64" s="89"/>
+      <c r="S64" s="89"/>
+      <c r="T64" s="51"/>
     </row>
     <row r="65" spans="1:20">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="51"/>
-      <c r="M65" s="51"/>
-      <c r="O65" s="61"/>
-      <c r="P65" s="62"/>
-      <c r="Q65" s="62"/>
-      <c r="R65" s="62"/>
-      <c r="S65" s="62"/>
-      <c r="T65" s="63"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="89"/>
+      <c r="Q65" s="89"/>
+      <c r="R65" s="89"/>
+      <c r="S65" s="89"/>
+      <c r="T65" s="51"/>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="24" t="s">
@@ -2440,27 +2458,27 @@
         <v>21</v>
       </c>
       <c r="F66" s="36"/>
-      <c r="G66" s="49" t="s">
+      <c r="G66" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="H66" s="49"/>
+      <c r="H66" s="90"/>
       <c r="I66" s="35" t="s">
         <v>67</v>
       </c>
       <c r="J66" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="L66" s="64" t="s">
+      <c r="L66" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="M66" s="64"/>
+      <c r="M66" s="67"/>
       <c r="N66" s="27"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="62"/>
-      <c r="Q66" s="62"/>
-      <c r="R66" s="62"/>
-      <c r="S66" s="62"/>
-      <c r="T66" s="63"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="89"/>
+      <c r="Q66" s="89"/>
+      <c r="R66" s="89"/>
+      <c r="S66" s="89"/>
+      <c r="T66" s="51"/>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="35" t="s">
@@ -2470,110 +2488,110 @@
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
       <c r="E67" s="30"/>
-      <c r="G67" s="65" t="s">
+      <c r="G67" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="H67" s="65"/>
+      <c r="H67" s="91"/>
       <c r="I67" s="45"/>
       <c r="J67" s="45"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="48"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="70"/>
       <c r="N67" s="39"/>
-      <c r="O67" s="61"/>
-      <c r="P67" s="62"/>
-      <c r="Q67" s="62"/>
-      <c r="R67" s="62"/>
-      <c r="S67" s="62"/>
-      <c r="T67" s="63"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="89"/>
+      <c r="Q67" s="89"/>
+      <c r="R67" s="89"/>
+      <c r="S67" s="89"/>
+      <c r="T67" s="51"/>
     </row>
     <row r="68" spans="1:20">
-      <c r="O68" s="61"/>
-      <c r="P68" s="62"/>
-      <c r="Q68" s="62"/>
-      <c r="R68" s="62"/>
-      <c r="S68" s="62"/>
-      <c r="T68" s="63"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="89"/>
+      <c r="Q68" s="89"/>
+      <c r="R68" s="89"/>
+      <c r="S68" s="89"/>
+      <c r="T68" s="51"/>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O69" s="61"/>
-      <c r="P69" s="62"/>
-      <c r="Q69" s="62"/>
-      <c r="R69" s="62"/>
-      <c r="S69" s="62"/>
-      <c r="T69" s="63"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="89"/>
+      <c r="Q69" s="89"/>
+      <c r="R69" s="89"/>
+      <c r="S69" s="89"/>
+      <c r="T69" s="51"/>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="50"/>
-      <c r="E70" s="50" t="s">
+      <c r="C70" s="72"/>
+      <c r="E70" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="50"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="62"/>
-      <c r="Q70" s="62"/>
-      <c r="R70" s="62"/>
-      <c r="S70" s="62"/>
-      <c r="T70" s="63"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="72"/>
+      <c r="M70" s="72"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="89"/>
+      <c r="Q70" s="89"/>
+      <c r="R70" s="89"/>
+      <c r="S70" s="89"/>
+      <c r="T70" s="51"/>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="46"/>
-      <c r="C71" s="48"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-      <c r="M71" s="59"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="62"/>
-      <c r="Q71" s="62"/>
-      <c r="R71" s="62"/>
-      <c r="S71" s="62"/>
-      <c r="T71" s="63"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="70"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="48"/>
+      <c r="O71" s="49"/>
+      <c r="P71" s="89"/>
+      <c r="Q71" s="89"/>
+      <c r="R71" s="89"/>
+      <c r="S71" s="89"/>
+      <c r="T71" s="51"/>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="55"/>
-      <c r="C72" s="56"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="56"/>
-      <c r="O72" s="55"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="60"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="56"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="54"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="54"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="53"/>
+      <c r="Q72" s="53"/>
+      <c r="R72" s="53"/>
+      <c r="S72" s="53"/>
+      <c r="T72" s="54"/>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="1" t="s">
@@ -2581,52 +2599,52 @@
       </c>
     </row>
     <row r="75" spans="1:20">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="48"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="70"/>
       <c r="G75" s="37" t="s">
         <v>76</v>
       </c>
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="48"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="70"/>
       <c r="M75" s="37" t="s">
         <v>77</v>
       </c>
       <c r="N75" s="37"/>
       <c r="O75" s="37"/>
       <c r="P75" s="37"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="48"/>
+      <c r="Q75" s="68"/>
+      <c r="R75" s="70"/>
     </row>
     <row r="76" spans="1:20">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="48"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="70"/>
       <c r="G76" s="37" t="s">
         <v>79</v>
       </c>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="48"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="70"/>
       <c r="M76" s="37" t="s">
         <v>80</v>
       </c>
       <c r="N76" s="37"/>
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
-      <c r="Q76" s="46"/>
-      <c r="R76" s="48"/>
+      <c r="Q76" s="68"/>
+      <c r="R76" s="70"/>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="37" t="s">
@@ -2634,22 +2652,22 @@
       </c>
       <c r="B78" s="37"/>
       <c r="C78" s="37"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="48"/>
-      <c r="G78" s="50" t="s">
+      <c r="D78" s="68"/>
+      <c r="E78" s="70"/>
+      <c r="G78" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="50"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="46"/>
-      <c r="K78" s="47"/>
-      <c r="L78" s="47"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="47"/>
-      <c r="P78" s="47"/>
-      <c r="Q78" s="47"/>
-      <c r="R78" s="48"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="72"/>
+      <c r="J78" s="68"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="69"/>
+      <c r="O78" s="69"/>
+      <c r="P78" s="69"/>
+      <c r="Q78" s="69"/>
+      <c r="R78" s="70"/>
       <c r="S78" s="43"/>
     </row>
     <row r="79" spans="1:20">
@@ -2661,325 +2679,325 @@
       <c r="T79" s="43"/>
     </row>
     <row r="80" spans="1:20">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="51"/>
-      <c r="I80" s="51"/>
-      <c r="J80" s="51"/>
-      <c r="K80" s="51"/>
-      <c r="L80" s="51"/>
-      <c r="M80" s="51"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="66"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="66"/>
+      <c r="M80" s="66"/>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="49" t="s">
+      <c r="B81" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="49"/>
-      <c r="D81" s="49" t="s">
+      <c r="C81" s="90"/>
+      <c r="D81" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="E81" s="49"/>
-      <c r="F81" s="52" t="s">
+      <c r="E81" s="90"/>
+      <c r="F81" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="G81" s="52"/>
-      <c r="H81" s="49" t="s">
+      <c r="G81" s="92"/>
+      <c r="H81" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
-      <c r="K81" s="49" t="s">
+      <c r="I81" s="90"/>
+      <c r="J81" s="90"/>
+      <c r="K81" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="L81" s="49"/>
-      <c r="M81" s="49"/>
-      <c r="N81" s="49" t="s">
+      <c r="L81" s="90"/>
+      <c r="M81" s="90"/>
+      <c r="N81" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="O81" s="49"/>
-      <c r="P81" s="49" t="s">
+      <c r="O81" s="90"/>
+      <c r="P81" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="Q81" s="49"/>
-      <c r="R81" s="49"/>
+      <c r="Q81" s="90"/>
+      <c r="R81" s="90"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B82" s="46"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="47"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="48"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="48"/>
-      <c r="P82" s="46"/>
-      <c r="Q82" s="47"/>
-      <c r="R82" s="48"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="70"/>
+      <c r="H82" s="68"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="70"/>
+      <c r="K82" s="68"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="70"/>
+      <c r="N82" s="68"/>
+      <c r="O82" s="70"/>
+      <c r="P82" s="68"/>
+      <c r="Q82" s="69"/>
+      <c r="R82" s="70"/>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="46"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="47"/>
-      <c r="J83" s="48"/>
-      <c r="K83" s="46"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="48"/>
-      <c r="N83" s="46"/>
-      <c r="O83" s="48"/>
-      <c r="P83" s="46"/>
-      <c r="Q83" s="47"/>
-      <c r="R83" s="48"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="70"/>
+      <c r="K83" s="68"/>
+      <c r="L83" s="69"/>
+      <c r="M83" s="70"/>
+      <c r="N83" s="68"/>
+      <c r="O83" s="70"/>
+      <c r="P83" s="68"/>
+      <c r="Q83" s="69"/>
+      <c r="R83" s="70"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="E85" s="50" t="s">
+      <c r="B85" s="90"/>
+      <c r="C85" s="90"/>
+      <c r="E85" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50"/>
-      <c r="L85" s="50"/>
-      <c r="M85" s="50"/>
-      <c r="N85" s="50"/>
-      <c r="O85" s="50"/>
-      <c r="P85" s="50"/>
-      <c r="Q85" s="50"/>
-      <c r="R85" s="50"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
+      <c r="K85" s="72"/>
+      <c r="L85" s="72"/>
+      <c r="M85" s="72"/>
+      <c r="N85" s="72"/>
+      <c r="O85" s="72"/>
+      <c r="P85" s="72"/>
+      <c r="Q85" s="72"/>
+      <c r="R85" s="72"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="46"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="48"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="47"/>
-      <c r="L86" s="47"/>
-      <c r="M86" s="47"/>
-      <c r="N86" s="47"/>
-      <c r="O86" s="47"/>
-      <c r="P86" s="47"/>
-      <c r="Q86" s="47"/>
-      <c r="R86" s="48"/>
+      <c r="A86" s="68"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="70"/>
+      <c r="E86" s="68"/>
+      <c r="F86" s="69"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="69"/>
+      <c r="I86" s="69"/>
+      <c r="J86" s="69"/>
+      <c r="K86" s="69"/>
+      <c r="L86" s="69"/>
+      <c r="M86" s="69"/>
+      <c r="N86" s="69"/>
+      <c r="O86" s="69"/>
+      <c r="P86" s="69"/>
+      <c r="Q86" s="69"/>
+      <c r="R86" s="70"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="51" t="s">
+      <c r="A88" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="51"/>
-      <c r="J88" s="51"/>
-      <c r="K88" s="51"/>
-      <c r="L88" s="51"/>
-      <c r="M88" s="51"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="66"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66"/>
+      <c r="K88" s="66"/>
+      <c r="L88" s="66"/>
+      <c r="M88" s="66"/>
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="49" t="s">
+      <c r="B89" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="49"/>
-      <c r="D89" s="49" t="s">
+      <c r="C89" s="90"/>
+      <c r="D89" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="E89" s="49"/>
-      <c r="F89" s="52" t="s">
+      <c r="E89" s="90"/>
+      <c r="F89" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="G89" s="52"/>
-      <c r="H89" s="49" t="s">
+      <c r="G89" s="92"/>
+      <c r="H89" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="I89" s="49"/>
-      <c r="J89" s="49"/>
-      <c r="K89" s="49" t="s">
+      <c r="I89" s="90"/>
+      <c r="J89" s="90"/>
+      <c r="K89" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="L89" s="49"/>
-      <c r="M89" s="49"/>
-      <c r="N89" s="49" t="s">
+      <c r="L89" s="90"/>
+      <c r="M89" s="90"/>
+      <c r="N89" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="O89" s="49"/>
-      <c r="P89" s="49" t="s">
+      <c r="O89" s="90"/>
+      <c r="P89" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="Q89" s="49"/>
-      <c r="R89" s="49"/>
+      <c r="Q89" s="90"/>
+      <c r="R89" s="90"/>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="46"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="48"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="47"/>
-      <c r="M90" s="48"/>
-      <c r="N90" s="46"/>
-      <c r="O90" s="48"/>
-      <c r="P90" s="46"/>
-      <c r="Q90" s="47"/>
-      <c r="R90" s="48"/>
+      <c r="B90" s="68"/>
+      <c r="C90" s="70"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="68"/>
+      <c r="G90" s="70"/>
+      <c r="H90" s="68"/>
+      <c r="I90" s="69"/>
+      <c r="J90" s="70"/>
+      <c r="K90" s="68"/>
+      <c r="L90" s="69"/>
+      <c r="M90" s="70"/>
+      <c r="N90" s="68"/>
+      <c r="O90" s="70"/>
+      <c r="P90" s="68"/>
+      <c r="Q90" s="69"/>
+      <c r="R90" s="70"/>
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="46"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="47"/>
-      <c r="J91" s="48"/>
-      <c r="K91" s="46"/>
-      <c r="L91" s="47"/>
-      <c r="M91" s="48"/>
-      <c r="N91" s="46"/>
-      <c r="O91" s="48"/>
-      <c r="P91" s="46"/>
-      <c r="Q91" s="47"/>
-      <c r="R91" s="48"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="70"/>
+      <c r="H91" s="68"/>
+      <c r="I91" s="69"/>
+      <c r="J91" s="70"/>
+      <c r="K91" s="68"/>
+      <c r="L91" s="69"/>
+      <c r="M91" s="70"/>
+      <c r="N91" s="68"/>
+      <c r="O91" s="70"/>
+      <c r="P91" s="68"/>
+      <c r="Q91" s="69"/>
+      <c r="R91" s="70"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="49"/>
-      <c r="C93" s="49"/>
-      <c r="E93" s="50" t="s">
+      <c r="B93" s="90"/>
+      <c r="C93" s="90"/>
+      <c r="E93" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50"/>
-      <c r="J93" s="50"/>
-      <c r="K93" s="50"/>
-      <c r="L93" s="50"/>
-      <c r="M93" s="50"/>
-      <c r="N93" s="50"/>
-      <c r="O93" s="50"/>
-      <c r="P93" s="50"/>
-      <c r="Q93" s="50"/>
-      <c r="R93" s="50"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="72"/>
+      <c r="H93" s="72"/>
+      <c r="I93" s="72"/>
+      <c r="J93" s="72"/>
+      <c r="K93" s="72"/>
+      <c r="L93" s="72"/>
+      <c r="M93" s="72"/>
+      <c r="N93" s="72"/>
+      <c r="O93" s="72"/>
+      <c r="P93" s="72"/>
+      <c r="Q93" s="72"/>
+      <c r="R93" s="72"/>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="46"/>
-      <c r="B94" s="47"/>
-      <c r="C94" s="48"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="47"/>
-      <c r="K94" s="47"/>
-      <c r="L94" s="47"/>
-      <c r="M94" s="47"/>
-      <c r="N94" s="47"/>
-      <c r="O94" s="47"/>
-      <c r="P94" s="47"/>
-      <c r="Q94" s="47"/>
-      <c r="R94" s="48"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="70"/>
+      <c r="E94" s="68"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="69"/>
+      <c r="I94" s="69"/>
+      <c r="J94" s="69"/>
+      <c r="K94" s="69"/>
+      <c r="L94" s="69"/>
+      <c r="M94" s="69"/>
+      <c r="N94" s="69"/>
+      <c r="O94" s="69"/>
+      <c r="P94" s="69"/>
+      <c r="Q94" s="69"/>
+      <c r="R94" s="70"/>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="51" t="s">
+      <c r="A96" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="51"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="51"/>
-      <c r="J96" s="51"/>
-      <c r="K96" s="51"/>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="51"/>
-      <c r="O96" s="51"/>
-      <c r="P96" s="51"/>
-      <c r="Q96" s="51"/>
-      <c r="R96" s="51"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="66"/>
+      <c r="L96" s="66"/>
+      <c r="M96" s="66"/>
+      <c r="N96" s="66"/>
+      <c r="O96" s="66"/>
+      <c r="P96" s="66"/>
+      <c r="Q96" s="66"/>
+      <c r="R96" s="66"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="53" t="s">
+      <c r="A97" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="53"/>
-      <c r="C97" s="54" t="s">
+      <c r="B97" s="93"/>
+      <c r="C97" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="D97" s="54"/>
+      <c r="D97" s="88"/>
       <c r="E97" s="38"/>
-      <c r="F97" s="50" t="s">
+      <c r="F97" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G97" s="50"/>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50"/>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50"/>
-      <c r="L97" s="50"/>
-      <c r="M97" s="50"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
+      <c r="J97" s="72"/>
+      <c r="K97" s="72"/>
+      <c r="L97" s="72"/>
+      <c r="M97" s="72"/>
       <c r="N97" s="27"/>
       <c r="O97" s="27"/>
       <c r="P97" s="27"/>
@@ -2988,18 +3006,18 @@
       <c r="S97" s="27"/>
     </row>
     <row r="98" spans="1:19">
-      <c r="A98" s="46"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="48"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
-      <c r="I98" s="47"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="47"/>
-      <c r="L98" s="47"/>
-      <c r="M98" s="48"/>
+      <c r="A98" s="68"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="70"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
+      <c r="K98" s="69"/>
+      <c r="L98" s="69"/>
+      <c r="M98" s="70"/>
       <c r="N98" s="42"/>
       <c r="O98" s="42"/>
       <c r="P98" s="42"/>
@@ -3009,6 +3027,188 @@
     </row>
   </sheetData>
   <mergeCells count="206">
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="E85:R85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="E86:R86"/>
+    <mergeCell ref="A88:M88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="F98:M98"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="E93:R93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="E94:R94"/>
+    <mergeCell ref="A96:R96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:M97"/>
+    <mergeCell ref="P90:R90"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="A80:M80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="J78:R78"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="E71:M72"/>
+    <mergeCell ref="O57:T72"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:M63"/>
+    <mergeCell ref="A65:M65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="E70:M70"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="O56:T56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:M59"/>
+    <mergeCell ref="A61:M61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:M62"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A55:M55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="K50:M51"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:M46"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="I38:M39"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="H26:M27"/>
+    <mergeCell ref="J20:M22"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="O7:T26"/>
     <mergeCell ref="O30:T51"/>
     <mergeCell ref="O29:T29"/>
@@ -3033,188 +3233,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="H26:M27"/>
-    <mergeCell ref="J20:M22"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I38:M39"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:M46"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A55:M55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="K50:M51"/>
-    <mergeCell ref="O56:T56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="A61:M61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:M62"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="E71:M72"/>
-    <mergeCell ref="O57:T72"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:M63"/>
-    <mergeCell ref="A65:M65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="E70:M70"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="A80:M80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="J78:R78"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="F98:M98"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="E93:R93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="E94:R94"/>
-    <mergeCell ref="A96:R96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:M97"/>
-    <mergeCell ref="P90:R90"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="P91:R91"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="E85:R85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="E86:R86"/>
-    <mergeCell ref="A88:M88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P89:R89"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
   </mergeCells>
   <pageMargins left="0.26250000000000001" right="0.26250000000000001" top="0.26250000000000001" bottom="0.26250000000000001" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape"/>
@@ -3223,12 +3241,291 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="K1" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="51"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N6"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/template/report_template.xlsx
+++ b/template/report_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\github_proj\hospital_report_system\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2541B029-834D-460B-9B75-C345FD3E3B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED044FB-08BB-423F-B999-FFFE78D369BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="9720" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2430" yWindow="6615" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前庭报告" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +62,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -140,10 +148,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,7 +425,7 @@
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -435,22 +443,22 @@
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:20" ht="21">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
